--- a/data/trans_orig/P1433-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1433-Estudios-trans_orig.xlsx
@@ -755,19 +755,19 @@
         <v>5200</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1987</v>
+        <v>1853</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11740</v>
+        <v>10858</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.003889849604154936</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001486783432594207</v>
+        <v>0.001385964997977813</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.008783095323548614</v>
+        <v>0.008122840646467178</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -776,19 +776,19 @@
         <v>5200</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1846</v>
+        <v>1912</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11028</v>
+        <v>11348</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002249576190219556</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0007985368803488013</v>
+        <v>0.0008270852208806036</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.004771471887467296</v>
+        <v>0.00490964411417984</v>
       </c>
     </row>
     <row r="5">
@@ -818,19 +818,19 @@
         <v>1331488</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1324948</v>
+        <v>1325830</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1334701</v>
+        <v>1334835</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9961101503958451</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9912169046764514</v>
+        <v>0.9918771593535329</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9985132165674058</v>
+        <v>0.9986140350020223</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2149</v>
@@ -839,19 +839,19 @@
         <v>2306131</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2300303</v>
+        <v>2299983</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2309485</v>
+        <v>2309419</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9977504238097804</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9952285281125326</v>
+        <v>0.9950903558858205</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9992014631196509</v>
+        <v>0.9991729147791194</v>
       </c>
     </row>
     <row r="6">
@@ -943,19 +943,19 @@
         <v>4769</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1806</v>
+        <v>1826</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10425</v>
+        <v>10685</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.002428030625091279</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0009195770410199395</v>
+        <v>0.0009298531119725341</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.005307968257107825</v>
+        <v>0.00544057967269009</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -964,19 +964,19 @@
         <v>3085</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>973</v>
+        <v>979</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8286</v>
+        <v>9297</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.001758428974947454</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0005544369272001438</v>
+        <v>0.0005581558745584873</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.00472261541412461</v>
+        <v>0.005298911615583944</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -985,19 +985,19 @@
         <v>7854</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3780</v>
+        <v>3807</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>14917</v>
+        <v>14828</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.002112080082470057</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.001016490817315815</v>
+        <v>0.001023847862765782</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.004011550450720379</v>
+        <v>0.003987540469917914</v>
       </c>
     </row>
     <row r="8">
@@ -1014,19 +1014,19 @@
         <v>1959188</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1953532</v>
+        <v>1953272</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1962151</v>
+        <v>1962131</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9975719693749088</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9946920317428921</v>
+        <v>0.9945594203273098</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.99908042295898</v>
+        <v>0.9990701468880274</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1630</v>
@@ -1035,19 +1035,19 @@
         <v>1751507</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1746306</v>
+        <v>1745295</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1753619</v>
+        <v>1753613</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9982415710250525</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9952773845858753</v>
+        <v>0.9947010883844161</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9994455630727999</v>
+        <v>0.9994418441254416</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3481</v>
@@ -1056,19 +1056,19 @@
         <v>3710695</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3703632</v>
+        <v>3703721</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3714769</v>
+        <v>3714742</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9978879199175299</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9959884495492796</v>
+        <v>0.9960124595300822</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9989835091826842</v>
+        <v>0.9989761521372342</v>
       </c>
     </row>
     <row r="9">
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7093</v>
+        <v>6207</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.004416477805793741</v>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01549721250531399</v>
+        <v>0.01356317324187901</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>6978</v>
+        <v>7910</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.002152933097759117</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.007432789688829346</v>
+        <v>0.008425735641642437</v>
       </c>
     </row>
     <row r="11">
@@ -1236,7 +1236,7 @@
         <v>455647</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>450575</v>
+        <v>451461</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>457668</v>
@@ -1245,7 +1245,7 @@
         <v>0.9955835221942062</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.984502787494686</v>
+        <v>0.9864368267581209</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1257,7 +1257,7 @@
         <v>936828</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>931871</v>
+        <v>930939</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>938849</v>
@@ -1266,7 +1266,7 @@
         <v>0.9978470669022409</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9925672103111706</v>
+        <v>0.9915742643583575</v>
       </c>
       <c r="W11" s="6" t="n">
         <v>1</v>
@@ -1361,19 +1361,19 @@
         <v>4769</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1795</v>
+        <v>1835</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10132</v>
+        <v>10754</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.001394401435916439</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0005249720303001469</v>
+        <v>0.0005366215743622931</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.002962716477964335</v>
+        <v>0.003144646420695393</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -1382,19 +1382,19 @@
         <v>10306</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5090</v>
+        <v>5216</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>18577</v>
+        <v>18600</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.002903993196129294</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.001434278032268204</v>
+        <v>0.001469676440360468</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.005234506528674564</v>
+        <v>0.005240994838685325</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>15</v>
@@ -1403,19 +1403,19 @@
         <v>15075</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>9175</v>
+        <v>8084</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>25050</v>
+        <v>24531</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.002163187508561276</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.001316566107316555</v>
+        <v>0.001160029707314949</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.003594700775237356</v>
+        <v>0.003520221509881493</v>
       </c>
     </row>
     <row r="14">
@@ -1432,19 +1432,19 @@
         <v>3415013</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3409650</v>
+        <v>3409028</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3417987</v>
+        <v>3417947</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9986055985640836</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9970372835220355</v>
+        <v>0.9968553535793045</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9994750279696998</v>
+        <v>0.9994633784256377</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3280</v>
@@ -1453,19 +1453,19 @@
         <v>3538642</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3530371</v>
+        <v>3530348</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3543858</v>
+        <v>3543732</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9970960068038707</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9947654934713255</v>
+        <v>0.9947590051613151</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9985657219677317</v>
+        <v>0.9985303235596396</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6477</v>
@@ -1474,19 +1474,19 @@
         <v>6953654</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6943679</v>
+        <v>6944198</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6959554</v>
+        <v>6960645</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9978368124914387</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9964052992247626</v>
+        <v>0.9964797784901185</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9986834338926834</v>
+        <v>0.998839970292685</v>
       </c>
     </row>
     <row r="15">
@@ -1820,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5043</v>
+        <v>4415</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.001180207167239603</v>
@@ -1829,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.006685185934108688</v>
+        <v>0.005852185780522476</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5844</v>
+        <v>4594</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.001025535277355726</v>
@@ -1850,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.005875715515802737</v>
+        <v>0.004619016755098537</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6784</v>
+        <v>5956</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001092245270539501</v>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.003879032672022505</v>
+        <v>0.003405264849439164</v>
       </c>
     </row>
     <row r="5">
@@ -1888,7 +1888,7 @@
         <v>753457</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>749304</v>
+        <v>749932</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>754347</v>
@@ -1897,7 +1897,7 @@
         <v>0.9988197928327603</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9933148140658908</v>
+        <v>0.9941478142194775</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -1909,7 +1909,7 @@
         <v>993640</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>988816</v>
+        <v>990066</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>994660</v>
@@ -1918,7 +1918,7 @@
         <v>0.9989744647226443</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9941242844841968</v>
+        <v>0.9953809832449008</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -1930,7 +1930,7 @@
         <v>1747097</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1742223</v>
+        <v>1743051</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>1749007</v>
@@ -1939,7 +1939,7 @@
         <v>0.9989077547294605</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9961209673279774</v>
+        <v>0.9965947351505607</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5178</v>
+        <v>4125</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0004391481877353431</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.00249384564232482</v>
+        <v>0.001986733204127964</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5124</v>
+        <v>5667</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0005129065245239785</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.002577270858829138</v>
+        <v>0.002849986213639806</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2</v>
@@ -2079,7 +2079,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>7012</v>
+        <v>6834</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0004752281557337362</v>
@@ -2088,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.001725202282499043</v>
+        <v>0.001681416768691831</v>
       </c>
     </row>
     <row r="8">
@@ -2105,7 +2105,7 @@
         <v>2075473</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2071207</v>
+        <v>2072260</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>2076385</v>
@@ -2114,7 +2114,7 @@
         <v>0.9995608518122646</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9975061543576756</v>
+        <v>0.9980132667958728</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -2126,7 +2126,7 @@
         <v>1987280</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1983176</v>
+        <v>1982633</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>1988300</v>
@@ -2135,7 +2135,7 @@
         <v>0.999487093475476</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9974227291411708</v>
+        <v>0.9971500137863608</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -2147,7 +2147,7 @@
         <v>4062753</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4057673</v>
+        <v>4057851</v>
       </c>
       <c r="T8" s="5" t="n">
         <v>4064685</v>
@@ -2156,7 +2156,7 @@
         <v>0.9995247718442662</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9982747977175009</v>
+        <v>0.9983185832313082</v>
       </c>
       <c r="W8" s="6" t="n">
         <v>1</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5397</v>
+        <v>5403</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.001960016471028037</v>
@@ -2263,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.009869089994037896</v>
+        <v>0.009879886295615663</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -2288,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>4323</v>
+        <v>7095</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0009779927014310326</v>
@@ -2297,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.00394455901137053</v>
+        <v>0.00647336885682888</v>
       </c>
     </row>
     <row r="11">
@@ -2314,7 +2314,7 @@
         <v>545814</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>541489</v>
+        <v>541483</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>546886</v>
@@ -2323,7 +2323,7 @@
         <v>0.9980399835289719</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9901309100059622</v>
+        <v>0.9901201137043844</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -2348,7 +2348,7 @@
         <v>1094955</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1091704</v>
+        <v>1088932</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>1096027</v>
@@ -2357,7 +2357,7 @@
         <v>0.9990220072985689</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9960554409886294</v>
+        <v>0.9935266311431711</v>
       </c>
       <c r="W11" s="6" t="n">
         <v>1</v>
@@ -2452,19 +2452,19 @@
         <v>2874</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8036</v>
+        <v>7915</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0008509050617619047</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.000263504952382392</v>
+        <v>0.0002624389716920878</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.00237911454378124</v>
+        <v>0.002343503794131254</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7390</v>
+        <v>6152</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0005775235200050416</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.002092376632846849</v>
+        <v>0.001741835782052572</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>5</v>
@@ -2494,19 +2494,19 @@
         <v>4914</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1812</v>
+        <v>1070</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>10964</v>
+        <v>10843</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.000711158254410706</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0002622437730797576</v>
+        <v>0.0001548734619970834</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.001586702900696639</v>
+        <v>0.001569181808443005</v>
       </c>
     </row>
     <row r="14">
@@ -2523,19 +2523,19 @@
         <v>3374744</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3369582</v>
+        <v>3369703</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3376728</v>
+        <v>3376732</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9991490949382381</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9976208854562187</v>
+        <v>0.9976564962058687</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9997364950476176</v>
+        <v>0.9997375610283079</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3324</v>
@@ -2544,7 +2544,7 @@
         <v>3530060</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3524710</v>
+        <v>3525948</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>3532100</v>
@@ -2553,7 +2553,7 @@
         <v>0.9994224764799949</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9979076233671531</v>
+        <v>0.9982581642179474</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -2565,19 +2565,19 @@
         <v>6904804</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6898754</v>
+        <v>6898875</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6907906</v>
+        <v>6908648</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9992888417455893</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9984132970993035</v>
+        <v>0.9984308181915572</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9997377562269203</v>
+        <v>0.9998451265380028</v>
       </c>
     </row>
     <row r="15">
